--- a/REGULAR/DE VILLA JAYVEE UMANDAP.xlsx
+++ b/REGULAR/DE VILLA JAYVEE UMANDAP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEDE3B3-4AD4-464F-8DBD-069AF2E0E68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AB8203-801C-4E90-A2A5-606E5ED81ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3008,7 +3008,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A58" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3175,7 +3175,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>37</v>
+        <v>37.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3185,7 +3185,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>52</v>
+        <v>53.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4461,13 +4461,15 @@
         <v>44986</v>
       </c>
       <c r="B69" s="20"/>
-      <c r="C69" s="13"/>
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
@@ -4478,9 +4480,13 @@
       <c r="A70" s="40">
         <v>45017</v>
       </c>
-      <c r="B70" s="20"/>
+      <c r="B70" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C70" s="13"/>
-      <c r="D70" s="39"/>
+      <c r="D70" s="39">
+        <v>1</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13" t="str">
@@ -4490,7 +4496,9 @@
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="20"/>
+      <c r="K70" s="48">
+        <v>45041</v>
+      </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
@@ -5799,7 +5807,7 @@
       <c r="D145" s="43"/>
       <c r="E145" s="49">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>37</v>
+        <v>37.25</v>
       </c>
       <c r="F145" s="15"/>
       <c r="G145" s="42" t="str">
@@ -5809,7 +5817,7 @@
       <c r="H145" s="43"/>
       <c r="I145" s="49">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>52</v>
+        <v>53.25</v>
       </c>
       <c r="J145" s="12"/>
       <c r="K145" s="15"/>

--- a/REGULAR/DE VILLA JAYVEE UMANDAP.xlsx
+++ b/REGULAR/DE VILLA JAYVEE UMANDAP.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AB8203-801C-4E90-A2A5-606E5ED81ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -223,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -657,7 +656,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -732,7 +730,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
@@ -800,7 +797,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1042,7 +1038,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1090,7 +1085,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1133,7 +1128,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1197,7 +1192,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,7 +1252,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1318,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1386,7 +1381,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1484,7 +1479,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1538,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1608,7 +1603,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1646,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1726,7 +1721,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1912,7 +1907,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,7 +1973,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2031,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +2097,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2158,7 +2153,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,7 +2228,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2276,7 +2271,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2342,7 +2337,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,7 +2393,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2491,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2559,7 +2554,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,25 +2620,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K145" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K146" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2655,13 +2650,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{CB44E398-F318-4683-B466-030B39F69924}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CAFD6A5-0771-4D4F-B29C-8C8A4BD59DAD}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{D6E424DD-7C72-4461-BBE2-CD59B37123B3}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{20858E5D-6D7D-4382-8DBC-1FD4091C418E}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{7FA7784E-0318-4F9C-9B40-57F4F3F3FD45}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2670,14 +2665,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{CB4120CB-17DA-4A84-90C5-840D28205819}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6D76F81F-2FB2-4658-9985-FB0CE23F1771}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{40B8C089-638A-4D13-9FCC-740888AE7704}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C3A40ACA-C07A-4798-82C2-714BDF47B4DB}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2981,7 +2976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2991,7 +2986,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2999,34 +2994,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K145"/>
+  <dimension ref="A2:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A58" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A64"/>
+      <selection activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3049,7 +3044,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3071,7 +3066,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3093,7 +3088,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3101,7 +3096,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3114,7 +3109,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3131,7 +3126,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3166,7 +3161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3175,7 +3170,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>37.25</v>
+        <v>39.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3185,12 +3180,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>53.25</v>
+        <v>55.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>47</v>
       </c>
@@ -3214,7 +3209,7 @@
         <v>43486</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43647</v>
       </c>
@@ -3234,7 +3229,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43678</v>
       </c>
@@ -3254,7 +3249,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43709</v>
       </c>
@@ -3274,7 +3269,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43739</v>
       </c>
@@ -3294,7 +3289,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43770</v>
       </c>
@@ -3314,7 +3309,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43800</v>
       </c>
@@ -3334,7 +3329,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="50" t="s">
         <v>48</v>
       </c>
@@ -3352,7 +3347,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43831</v>
       </c>
@@ -3376,7 +3371,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43862</v>
       </c>
@@ -3400,7 +3395,7 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43891</v>
       </c>
@@ -3420,7 +3415,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43922</v>
       </c>
@@ -3440,7 +3435,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43952</v>
       </c>
@@ -3460,7 +3455,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43983</v>
       </c>
@@ -3480,7 +3475,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44013</v>
       </c>
@@ -3504,7 +3499,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>51</v>
@@ -3524,7 +3519,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44044</v>
       </c>
@@ -3550,7 +3545,7 @@
         <v>44083</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44075</v>
       </c>
@@ -3570,7 +3565,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44105</v>
       </c>
@@ -3590,7 +3585,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44136</v>
       </c>
@@ -3610,7 +3605,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>44166</v>
       </c>
@@ -3634,7 +3629,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="50" t="s">
         <v>54</v>
       </c>
@@ -3652,7 +3647,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44197</v>
       </c>
@@ -3672,7 +3667,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>44228</v>
       </c>
@@ -3696,7 +3691,7 @@
         <v>44230</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>51</v>
@@ -3716,7 +3711,7 @@
         <v>44217</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44256</v>
       </c>
@@ -3736,7 +3731,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>44287</v>
       </c>
@@ -3756,7 +3751,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44317</v>
       </c>
@@ -3776,7 +3771,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44348</v>
       </c>
@@ -3800,7 +3795,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44378</v>
       </c>
@@ -3826,7 +3821,7 @@
         <v>44396</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>59</v>
@@ -3848,7 +3843,7 @@
         <v>44399</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>44409</v>
       </c>
@@ -3868,7 +3863,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44440</v>
       </c>
@@ -3888,7 +3883,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44470</v>
       </c>
@@ -3914,7 +3909,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>52</v>
@@ -3936,7 +3931,7 @@
         <v>44502</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44501</v>
       </c>
@@ -3962,7 +3957,7 @@
         <v>44515</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>52</v>
@@ -3984,7 +3979,7 @@
         <v>44507</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>51</v>
@@ -4004,7 +3999,7 @@
         <v>44543</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44531</v>
       </c>
@@ -4030,7 +4025,7 @@
         <v>44557</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>52</v>
@@ -4052,7 +4047,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4068,7 +4063,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="48"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
         <v>55</v>
       </c>
@@ -4086,7 +4081,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44562</v>
       </c>
@@ -4110,7 +4105,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44593</v>
       </c>
@@ -4134,7 +4129,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -4156,7 +4151,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44621</v>
       </c>
@@ -4176,7 +4171,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44652</v>
       </c>
@@ -4196,7 +4191,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44682</v>
       </c>
@@ -4216,7 +4211,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44713</v>
       </c>
@@ -4236,7 +4231,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44743</v>
       </c>
@@ -4256,7 +4251,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44774</v>
       </c>
@@ -4276,7 +4271,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44805</v>
       </c>
@@ -4296,7 +4291,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44835</v>
       </c>
@@ -4316,7 +4311,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44866</v>
       </c>
@@ -4340,7 +4335,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44896</v>
       </c>
@@ -4366,7 +4361,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>53</v>
@@ -4386,7 +4381,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="48"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="50" t="s">
         <v>60</v>
       </c>
@@ -4404,7 +4399,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44927</v>
       </c>
@@ -4430,7 +4425,7 @@
         <v>44952</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44958</v>
       </c>
@@ -4456,7 +4451,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44986</v>
       </c>
@@ -4476,22 +4471,24 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>45017</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="13"/>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D70" s="39">
         <v>1</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
@@ -4500,29 +4497,33 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>45047</v>
       </c>
       <c r="B71" s="20"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>45078</v>
       </c>
-      <c r="B72" s="20"/>
+      <c r="B72" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
       <c r="E72" s="9"/>
@@ -4534,13 +4535,15 @@
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B73" s="20"/>
+      <c r="K72" s="48">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="40"/>
+      <c r="B73" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C73" s="13"/>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
@@ -4552,11 +4555,13 @@
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="48">
+        <v>45099</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -4572,9 +4577,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -4590,9 +4595,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -4608,9 +4613,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -4626,9 +4631,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -4644,9 +4649,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -4662,9 +4667,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -4680,9 +4685,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4698,9 +4703,9 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4716,9 +4721,9 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4734,9 +4739,9 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4752,9 +4757,9 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4770,9 +4775,9 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4788,9 +4793,9 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4806,9 +4811,9 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4824,9 +4829,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4842,9 +4847,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4860,9 +4865,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4878,9 +4883,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4896,9 +4901,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4914,9 +4919,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4932,9 +4937,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4950,9 +4955,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4968,9 +4973,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4986,9 +4991,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5004,9 +5009,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5022,9 +5027,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5040,9 +5045,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5058,9 +5063,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5076,9 +5081,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5094,9 +5099,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5112,9 +5117,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5130,9 +5135,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5148,9 +5153,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5166,9 +5171,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5184,9 +5189,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5202,9 +5207,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5220,9 +5225,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5238,9 +5243,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5256,9 +5261,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5274,9 +5279,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5292,9 +5297,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5310,9 +5315,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5328,9 +5333,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5346,9 +5351,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5364,9 +5369,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5382,9 +5387,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5400,9 +5405,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5418,9 +5423,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5436,9 +5441,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5454,9 +5459,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5472,9 +5477,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5490,9 +5495,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5508,9 +5513,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5526,9 +5531,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5544,8 +5549,10 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="40">
+        <v>46784</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -5560,7 +5567,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5576,7 +5583,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5592,7 +5599,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5608,7 +5615,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5624,7 +5631,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5640,7 +5647,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5656,7 +5663,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5672,7 +5679,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -5688,7 +5695,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -5704,7 +5711,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -5720,7 +5727,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -5736,7 +5743,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5752,7 +5759,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -5768,7 +5775,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -5784,43 +5791,59 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="41"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="42"/>
-      <c r="D144" s="43"/>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="40"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H144" s="43"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
       <c r="I144" s="9"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="15"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="41"/>
       <c r="B145" s="15"/>
       <c r="C145" s="42"/>
       <c r="D145" s="43"/>
-      <c r="E145" s="49">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>37.25</v>
-      </c>
+      <c r="E145" s="9"/>
       <c r="F145" s="15"/>
       <c r="G145" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H145" s="43"/>
-      <c r="I145" s="49">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>53.25</v>
-      </c>
+      <c r="I145" s="9"/>
       <c r="J145" s="12"/>
       <c r="K145" s="15"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="41"/>
+      <c r="B146" s="15"/>
+      <c r="C146" s="42"/>
+      <c r="D146" s="43"/>
+      <c r="E146" s="49">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>39.75</v>
+      </c>
+      <c r="F146" s="15"/>
+      <c r="G146" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="43"/>
+      <c r="I146" s="49">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>55.75</v>
+      </c>
+      <c r="J146" s="12"/>
+      <c r="K146" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5837,10 +5860,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5863,7 +5886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5871,21 +5894,21 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -5898,7 +5921,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5927,7 +5950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -5947,17 +5970,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5978,7 +6001,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6005,7 +6028,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -6031,7 +6054,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -6057,7 +6080,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -6083,7 +6106,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -6109,7 +6132,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -6135,7 +6158,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -6161,7 +6184,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -6187,7 +6210,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -6207,7 +6230,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -6227,7 +6250,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -6247,7 +6270,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -6268,7 +6291,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -6289,7 +6312,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -6310,7 +6333,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -6331,7 +6354,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6352,7 +6375,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6373,7 +6396,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6394,7 +6417,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6415,7 +6438,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6436,7 +6459,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6457,7 +6480,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6478,7 +6501,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6499,7 +6522,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6520,7 +6543,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6541,7 +6564,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6562,7 +6585,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6583,7 +6606,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6604,7 +6627,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6625,7 +6648,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6646,7 +6669,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6667,7 +6690,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6676,7 +6699,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6685,7 +6708,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6694,7 +6717,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6703,7 +6726,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6712,7 +6735,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6721,7 +6744,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6730,7 +6753,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6739,7 +6762,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6748,7 +6771,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6757,7 +6780,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6766,7 +6789,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6775,7 +6798,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6784,7 +6807,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6793,7 +6816,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6802,7 +6825,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6811,7 +6834,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6820,7 +6843,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6829,7 +6852,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6838,7 +6861,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6847,7 +6870,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6856,7 +6879,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6865,7 +6888,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6874,7 +6897,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6883,7 +6906,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6892,7 +6915,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6901,7 +6924,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6910,7 +6933,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6919,7 +6942,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6928,7 +6951,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
